--- a/data/Berechnung.xlsx
+++ b/data/Berechnung.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzakotnik/lab/wirklichpositiv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A934F8-0A40-684C-B9BD-B3873CB205DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E86F39A-2BC7-8343-9D86-865A4FEE2464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="3040" windowWidth="28040" windowHeight="17360" xr2:uid="{43C93D33-B31F-0446-9448-2275521516B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,9 +117,9 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -441,7 +441,7 @@
   <dimension ref="C4:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Berechnung.xlsx
+++ b/data/Berechnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzakotnik/lab/wirklichpositiv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E86F39A-2BC7-8343-9D86-865A4FEE2464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1B9A2-AB48-084F-8CE8-AF9433B1299C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="3040" windowWidth="28040" windowHeight="17360" xr2:uid="{43C93D33-B31F-0446-9448-2275521516B2}"/>
+    <workbookView xWindow="20460" yWindow="2800" windowWidth="14140" windowHeight="17360" xr2:uid="{43C93D33-B31F-0446-9448-2275521516B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="C4:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0.96499999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>0.995</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="E7" s="1">
         <v>100000</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
@@ -491,7 +491,7 @@
       </c>
       <c r="D11" s="3">
         <f>D9/E7*D7</f>
-        <v>15</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
@@ -500,7 +500,7 @@
       </c>
       <c r="D12">
         <f>D9-D11</f>
-        <v>9985</v>
+        <v>99480</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
       </c>
       <c r="D14" s="3">
         <f>D11*D4</f>
-        <v>14.475</v>
+        <v>515.84</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
       </c>
       <c r="D15" s="3">
         <f>D11*(1-D4)</f>
-        <v>0.52500000000000047</v>
+        <v>4.1600000000000037</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
       </c>
       <c r="D17" s="2">
         <f>D12*(1-D5)</f>
-        <v>49.925000000000047</v>
+        <v>6764.6399999999949</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
       </c>
       <c r="D18" s="2">
         <f>D12*D5</f>
-        <v>9935.0750000000007</v>
+        <v>92715.36</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
@@ -545,7 +545,7 @@
       </c>
       <c r="D21" s="4">
         <f>D14/D17</f>
-        <v>0.28993490235353003</v>
+        <v>7.6255351356465453E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Berechnung.xlsx
+++ b/data/Berechnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzakotnik/lab/wirklichpositiv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1B9A2-AB48-084F-8CE8-AF9433B1299C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD6CB9-4DA9-8E4D-AC9A-2EAC7200A2C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="2800" windowWidth="14140" windowHeight="17360" xr2:uid="{43C93D33-B31F-0446-9448-2275521516B2}"/>
+    <workbookView xWindow="13820" yWindow="2340" windowWidth="19780" windowHeight="17360" xr2:uid="{43C93D33-B31F-0446-9448-2275521516B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sensitivität</t>
   </si>
@@ -67,15 +67,20 @@
   </si>
   <si>
     <t xml:space="preserve">Wahrscheinlichkeit dass ein positiver Test richtig liegt: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahrscheinlichkeit dass ein negativer Test falsch liegt: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,13 +120,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -438,15 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBCF15F-7A16-404E-A8D9-FE76059ACD56}">
-  <dimension ref="C4:E21"/>
+  <dimension ref="C4:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,16 +461,16 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.99199999999999999</v>
+      <c r="D4" s="4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.93200000000000005</v>
+      <c r="D5" s="4">
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
@@ -471,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>100000</v>
@@ -491,7 +498,7 @@
       </c>
       <c r="D11" s="3">
         <f>D9/E7*D7</f>
-        <v>520</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
@@ -500,7 +507,7 @@
       </c>
       <c r="D12">
         <f>D9-D11</f>
-        <v>99480</v>
+        <v>99950</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
@@ -509,7 +516,7 @@
       </c>
       <c r="D14" s="3">
         <f>D11*D4</f>
-        <v>515.84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
@@ -518,7 +525,7 @@
       </c>
       <c r="D15" s="3">
         <f>D11*(1-D4)</f>
-        <v>4.1600000000000037</v>
+        <v>9.9999999999999982</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -527,7 +534,7 @@
       </c>
       <c r="D17" s="2">
         <f>D12*(1-D5)</f>
-        <v>6764.6399999999949</v>
+        <v>1999.0000000000018</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -536,16 +543,25 @@
       </c>
       <c r="D18" s="2">
         <f>D12*D5</f>
-        <v>92715.36</v>
+        <v>97951</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <f>D14/D17</f>
-        <v>7.6255351356465453E-2</v>
+        <v>2.0010005002501233E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D15/D18</f>
+        <v>1.0209186225765942E-4</v>
       </c>
     </row>
   </sheetData>

--- a/data/Berechnung.xlsx
+++ b/data/Berechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzakotnik/lab/wirklichpositiv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD6CB9-4DA9-8E4D-AC9A-2EAC7200A2C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23AE18B-DB19-D54C-8BF0-2A72585C946B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13820" yWindow="2340" windowWidth="19780" windowHeight="17360" xr2:uid="{43C93D33-B31F-0446-9448-2275521516B2}"/>
   </bookViews>
@@ -79,8 +79,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,8 +126,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -447,7 +447,7 @@
   <dimension ref="C4:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,8 +551,8 @@
         <v>10</v>
       </c>
       <c r="D21" s="5">
-        <f>D14/D17</f>
-        <v>2.0010005002501233E-2</v>
+        <f>D14/(D17+D14)</f>
+        <v>1.9617459538989683E-2</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
@@ -560,8 +560,8 @@
         <v>11</v>
       </c>
       <c r="D22" s="6">
-        <f>D15/D18</f>
-        <v>1.0209186225765942E-4</v>
+        <f>D15/(D18+D15)</f>
+        <v>1.0208144057328936E-4</v>
       </c>
     </row>
   </sheetData>
